--- a/parameter_fitting/ile-de-france_data_master.xlsx
+++ b/parameter_fitting/ile-de-france_data_master.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergioacamelogomez/Dropbox/COVID/Local_Code/Final_Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/spyroszoumpoulis1/Dropbox (Personal)/Research/COVID/Local_Code/Final_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52ECE7FB-7B67-7645-9B81-F0239AE97EC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1264BEA-66DF-1F49-BC9A-A6957F7E9CBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2900" yWindow="2740" windowWidth="27100" windowHeight="17640" tabRatio="920" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1700" yWindow="460" windowWidth="27100" windowHeight="16240" tabRatio="920" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="population" sheetId="11" r:id="rId1"/>
     <sheet name="contributions_normal" sheetId="9" r:id="rId2"/>
     <sheet name="contributions_April" sheetId="21" r:id="rId3"/>
-    <sheet name="activity_drops" sheetId="24" r:id="rId4"/>
-    <sheet name="contributions_May" sheetId="22" r:id="rId5"/>
+    <sheet name="contributions_May" sheetId="22" r:id="rId4"/>
+    <sheet name="activity_levels_as_%_of_full" sheetId="24" r:id="rId5"/>
     <sheet name="SEIR_params" sheetId="13" r:id="rId6"/>
     <sheet name="SEIR_params_conf_range_lower" sheetId="18" r:id="rId7"/>
     <sheet name="SEIR_params_conf_range_upper" sheetId="19" r:id="rId8"/>
@@ -1201,7 +1201,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1352,68 +1352,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D19DA3-F327-BB42-849A-DA2F94E9D73F}">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="7">
-        <v>0.61</v>
-      </c>
-      <c r="C2" s="7">
-        <v>0.313</v>
-      </c>
-      <c r="D2" s="7">
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="7">
-        <v>0.81</v>
-      </c>
-      <c r="C3" s="7">
-        <v>0.42599999999999999</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0.753</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBC89245-18F7-8444-808D-1BC1C3E9AC83}">
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1556,6 +1499,63 @@
       </c>
       <c r="J4" s="6">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D19DA3-F327-BB42-849A-DA2F94E9D73F}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="7">
+        <v>0.61</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0.313</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="7">
+        <v>0.81</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0.753</v>
       </c>
     </row>
   </sheetData>
